--- a/URS/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/URS/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC538E1-6C85-4200-84DA-2E3182260D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6874F2-CB96-4592-9ED8-B0B4DCDC4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>刪除日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Index4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,11 +241,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>空白:未產生媒體
-Y:已產生媒體</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>批號</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -298,10 +289,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DeleteDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>RelAcctName</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -486,22 +473,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增(恢復授權)
-D:取消
-Z:暫停授權</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = ,AND RepayBank = ,AND RepayAcct = </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>repayAcctFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>facmNoEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
@@ -825,8 +802,70 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>CdCode:AchAuthCode
+A:紙本新增
+O:舊檔轉換</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:AmlCheckItem
+0.非可疑名單/已完成名單確認
+1.需審查/確認
+2.為凍結名單/未確定名單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:Sex</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:RelationCode
+00本人
+01夫
+02妻
+03父
+04母
+05子
+06女
+07兄
+08弟
+09姊
+10妹
+11姪子
+99其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已授權成功為暫停授權</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增授權
+D:取消授權
+Y.刪除(DeleteDate &gt; 0時，顯示用)
+Z.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未產生媒體
+Y:已產生媒體</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>facmNoEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode:AuthStatus
-空白-未授權
+空白-未授權('':再次授權)
 0-成功授權/取消授權
 1-印鑑不符
 2-無此帳號
@@ -850,38 +889,23 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AchAuthCode
-A:紙本新增
-O:舊檔轉換</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:Sex</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RelationCode
-00本人
-01夫
-02妻
-03父
-04母
-05子
-06女
-07兄
-08弟
-09姊
-10妹
-11姪子
-99其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>CustNo = ,AND RepayBank = ,AND AuthStatus ^i ,AND CreateFlag ^i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoRepayBankEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayAcct Desc,AuthCreateDate Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxCd</t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1586,7 +1610,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -1599,7 +1623,7 @@
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1614,7 +1638,7 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>37</v>
@@ -1653,7 +1677,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1666,7 +1690,7 @@
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1675,11 +1699,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1717,10 +1741,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="26">
         <v>8</v>
@@ -1733,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>22</v>
@@ -1751,13 +1775,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
@@ -1769,28 +1793,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16">
         <v>14</v>
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="48.6">
+    <row r="14" spans="1:7" ht="64.8">
       <c r="A14" s="23">
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>32</v>
@@ -1799,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1827,19 +1851,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1850,16 +1874,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="26">
         <v>8</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="356.4">
@@ -1867,19 +1891,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6">
@@ -1899,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1922,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -1930,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>44</v>
@@ -1942,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1950,10 +1974,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>32</v>
@@ -1968,13 +1992,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E23" s="26">
         <v>8</v>
@@ -1986,13 +2010,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" s="26">
         <v>8</v>
@@ -2004,25 +2028,27 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" s="26">
         <v>8</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="226.8">
       <c r="A26" s="23">
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>43</v>
@@ -2034,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2042,10 +2068,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>35</v>
@@ -2060,10 +2086,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>32</v>
@@ -2078,13 +2104,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29" s="26">
         <v>8</v>
@@ -2096,10 +2122,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>32</v>
@@ -2108,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64.8">
@@ -2116,19 +2142,19 @@
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E31" s="23">
         <v>1</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2136,33 +2162,35 @@
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="26">
-        <v>6</v>
-      </c>
-      <c r="G32" s="20"/>
+      <c r="E32" s="23">
+        <v>5</v>
+      </c>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="23">
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="26">
+        <v>6</v>
+      </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
@@ -2170,17 +2198,15 @@
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="26">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="26"/>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
@@ -2188,16 +2214,34 @@
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="26">
+        <v>6</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="23">
+        <v>27</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D36" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="G35" s="20"/>
+      <c r="E36" s="26"/>
+      <c r="G36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2218,11 +2262,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2246,161 +2290,172 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9BA81D-DC33-4394-B644-CD2D9B3EBDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2432,28 +2487,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2461,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -2476,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H2" s="33"/>
     </row>
@@ -2485,13 +2540,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -2500,10 +2555,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2511,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -2526,7 +2581,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H4" s="33"/>
     </row>
@@ -2535,10 +2590,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -2550,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H5" s="33"/>
     </row>
@@ -2559,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -2591,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -2606,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -2615,13 +2670,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -2639,13 +2694,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -2654,7 +2709,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2663,10 +2718,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -2678,7 +2733,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2687,13 +2742,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -2702,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2711,13 +2766,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -2726,7 +2781,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2735,13 +2790,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -2750,7 +2805,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2759,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -2774,7 +2829,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2783,10 +2838,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -2805,10 +2860,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -2820,7 +2875,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -2829,13 +2884,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -2844,7 +2899,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="33"/>
     </row>
@@ -2853,13 +2908,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -2868,7 +2923,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H19" s="33"/>
     </row>
@@ -2877,13 +2932,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -2892,7 +2947,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H20" s="33"/>
     </row>
@@ -2901,13 +2956,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -2923,13 +2978,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -2955,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -2970,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -2979,10 +3034,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3001,13 +3056,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>
@@ -3025,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B730771-12FB-448A-94C2-40CC5FC6D123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3047,31 +3102,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3079,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -3097,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -3106,13 +3161,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -3125,10 +3180,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3136,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -3155,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I4" s="33"/>
     </row>
@@ -3164,10 +3219,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -3183,7 +3238,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I5" s="33"/>
     </row>
@@ -3192,13 +3247,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -3229,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -3247,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I8" s="33"/>
     </row>
@@ -3256,13 +3311,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -3284,13 +3339,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -3303,7 +3358,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I10" s="33"/>
     </row>
@@ -3312,10 +3367,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -3331,7 +3386,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I11" s="33"/>
     </row>
@@ -3340,13 +3395,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -3359,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I12" s="33"/>
     </row>
@@ -3368,13 +3423,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -3387,7 +3442,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -3396,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -3415,7 +3470,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -3424,13 +3479,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -3443,7 +3498,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I15" s="33"/>
     </row>
@@ -3452,10 +3507,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3478,10 +3533,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3497,7 +3552,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I17" s="33"/>
     </row>
@@ -3506,13 +3561,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -3525,7 +3580,7 @@
         <v>106</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I18" s="33"/>
     </row>
@@ -3534,13 +3589,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -3553,10 +3608,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3564,13 +3619,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -3583,7 +3638,7 @@
         <v>108</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I20" s="33"/>
     </row>
@@ -3592,13 +3647,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3618,13 +3673,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3655,13 +3710,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3673,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I24" s="33"/>
     </row>
@@ -3682,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3708,13 +3763,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>
